--- a/3-Analyze/Project Files/Plantilla diagrama de valor.xlsx
+++ b/3-Analyze/Project Files/Plantilla diagrama de valor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roger\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniell/Documents/LeanSS/3-Analyze/Project Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F15AA4F-ACA8-4A12-A16A-7215F3418BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A789DD5B-36E0-6A4E-8248-415CDC862AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="853" xr2:uid="{7D17A5CE-CA84-4A0C-81FC-A199437B6F5B}"/>
+    <workbookView xWindow="30420" yWindow="500" windowWidth="32300" windowHeight="26820" tabRatio="853" xr2:uid="{7D17A5CE-CA84-4A0C-81FC-A199437B6F5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="10" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
-  <si>
-    <t>Tipo de Desperdicio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t xml:space="preserve">* Este contenido es propiedad de Direktor DG. </t>
   </si>
@@ -50,12 +47,6 @@
     <t>Su difusión, reproducción o uso total o parcial para cualquier otro proposito queda prohibida.</t>
   </si>
   <si>
-    <t>TIPO DE ACTIVIDAD</t>
-  </si>
-  <si>
-    <t>RESPONSABLE</t>
-  </si>
-  <si>
     <t>ESPERA</t>
   </si>
   <si>
@@ -95,15 +86,6 @@
     <t>Innecesarias y sin valor Agregado</t>
   </si>
   <si>
-    <t>Etiquetas de fila</t>
-  </si>
-  <si>
-    <t>Total general</t>
-  </si>
-  <si>
-    <t>CAMILA</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -113,24 +95,12 @@
     <t>RESPONSABLE DE LA ACTIVIDAD:</t>
   </si>
   <si>
-    <t>LIMPIEZA MÁQUINA</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANALISIS DE VALOR - PROCESO: </t>
   </si>
   <si>
     <t>DIAGRAMA DE VALOR PROCESO:</t>
   </si>
   <si>
-    <t xml:space="preserve">Innecesarias y sin valor Agregado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                ACTIVIDAD                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               UNIDAD DE TIEMPO</t>
-  </si>
-  <si>
     <t>AGREGA VALOR</t>
   </si>
   <si>
@@ -144,6 +114,223 @@
   </si>
   <si>
     <t>*NO OLVIDES ACTUALIZAR LOS DATOS. Ctrl + Alt + F5</t>
+  </si>
+  <si>
+    <t>RESPONSIBLE</t>
+  </si>
+  <si>
+    <t>Daniel Reyes</t>
+  </si>
+  <si>
+    <t>Type of activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necessary but without added value </t>
+  </si>
+  <si>
+    <t>Unnecessaryt and without added value</t>
+  </si>
+  <si>
+    <t>TYPE OF WASTE</t>
+  </si>
+  <si>
+    <t>Value-added</t>
+  </si>
+  <si>
+    <t>MACHINE CLEANING</t>
+  </si>
+  <si>
+    <t>The pre-expansion area operator searches for the 
+only available skid</t>
+  </si>
+  <si>
+    <t>The data is recorded in the production report and on a blackboard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ACTIVITY                                                         </t>
+  </si>
+  <si>
+    <t>TIME UNIT</t>
+  </si>
+  <si>
+    <t>The operator of the molding area identifies the silo.</t>
+  </si>
+  <si>
+    <t>The quality manager performs sampling before 
+accepting or rejecting raw material.</t>
+  </si>
+  <si>
+    <t>A skid is required to transport the raw material to the corresponding area.</t>
+  </si>
+  <si>
+    <t>The operator uses a crane to transport the big sack to the expanding machine.</t>
+  </si>
+  <si>
+    <t>Unrolls the big sack</t>
+  </si>
+  <si>
+    <t>The operator adjusts the machine parameters</t>
+  </si>
+  <si>
+    <t>Operator performs hose replacement</t>
+  </si>
+  <si>
+    <t>Pearl pre-expansion process</t>
+  </si>
+  <si>
+    <t>The operator performs the cleaning for the next batch</t>
+  </si>
+  <si>
+    <t>The bead is left to rest to improve its 
+mechanical stability</t>
+  </si>
+  <si>
+    <t>Molding area operator turns on the blower</t>
+  </si>
+  <si>
+    <t>The bead is pumped into the blending silo through  
+a hose</t>
+  </si>
+  <si>
+    <t>The material is pumped to an overhead silo 
+that transports the material to the blockhouse.</t>
+  </si>
+  <si>
+    <t>The material is unloaded the pearl by inserting it into 
+the blockhouse.</t>
+  </si>
+  <si>
+    <t>Steam process to fuse the beads to form the blocks</t>
+  </si>
+  <si>
+    <t>The head of the molding area notes the time and 
+date of production.</t>
+  </si>
+  <si>
+    <t>The head of the molding area weighs the blocks.</t>
+  </si>
+  <si>
+    <t>The operator of the molding area fills out the 
+identification label.</t>
+  </si>
+  <si>
+    <t>The Molding area operator sticks the label on each block.</t>
+  </si>
+  <si>
+    <t>The operator of the molding area carries and 
+arranges the blocks in the warehouse.</t>
+  </si>
+  <si>
+    <t>The blocks are allowed to rest to remove moisture</t>
+  </si>
+  <si>
+    <t>The cutting area manager organizes and delivers the 
+cutting diagram to the work team.</t>
+  </si>
+  <si>
+    <t>The operator of the cutting area adjusts the wires to the required size to the required size on the cutting machine</t>
+  </si>
+  <si>
+    <t>The head of the cutting area requests the blocks to be 
+cut from the warehouseman.</t>
+  </si>
+  <si>
+    <t>The storekeeper brings the blocks to the area and the operator lifts and transports the block to the cutting machine.</t>
+  </si>
+  <si>
+    <t>If it does not meet the density, the material is sent 
+through a hose to the pre-expansion machine for the second pass.</t>
+  </si>
+  <si>
+    <t>The blocks are passed through the machine for cutting</t>
+  </si>
+  <si>
+    <t>An area assistant removes the scrap or reused material 
+and takes it to the corresponding areas.</t>
+  </si>
+  <si>
+    <t>The cut material is placed in the area to wait for 
+its second cut.</t>
+  </si>
+  <si>
+    <t>The second operator in the area adjusts the pantograph 
+wires for the second cut</t>
+  </si>
+  <si>
+    <t>Second cut of the blocks with the pantograph</t>
+  </si>
+  <si>
+    <t>Assistants count, arrange, strap and identify 
+finished product</t>
+  </si>
+  <si>
+    <t>Helpers transport finished product to the finished product warehouse</t>
+  </si>
+  <si>
+    <t>An assistant shipper goes for the loading order</t>
+  </si>
+  <si>
+    <t>The head of the area gives the boarding instructions</t>
+  </si>
+  <si>
+    <t>The driver enters the truck into the loading area.</t>
+  </si>
+  <si>
+    <t>One of the helpers is looking for a ladder to climb 
+into the truck.</t>
+  </si>
+  <si>
+    <t>The two assistants proceed to load the material into 
+the unit.</t>
+  </si>
+  <si>
+    <t>One of the helpers throws the slings on the top of the 
+truck.</t>
+  </si>
+  <si>
+    <t>One of the assistants looks for slings to hold the 
+cases.</t>
+  </si>
+  <si>
+    <t>One of the assistants arranges the cases with 
+the tube</t>
+  </si>
+  <si>
+    <t>One of the assistants looks for a pipe to accommodate and align the cases.</t>
+  </si>
+  <si>
+    <t>One of the assistants checks and the corners needed to protect the product.</t>
+  </si>
+  <si>
+    <t>One of the assistants climbs on top of the product to 
+tie it down</t>
+  </si>
+  <si>
+    <t>One of the assistans arranges the wooden corner pieces</t>
+  </si>
+  <si>
+    <t>One of the assistants tightens the slings.</t>
+  </si>
+  <si>
+    <t>The second helper puts the ladder he used to climb 
+into the truck back in place.</t>
+  </si>
+  <si>
+    <t>The second assistant lifts the slings that were not used.</t>
+  </si>
+  <si>
+    <t>The driver waits for the departure documentation</t>
+  </si>
+  <si>
+    <t>The head of the area delivers documentation</t>
+  </si>
+  <si>
+    <t>One of the assistants goes to the guardhouse to 
+fill out the check-out form. to fill out the check-out form</t>
+  </si>
+  <si>
+    <t>The policeman makes the entry in his logbook and 
+drives the truck away.</t>
   </si>
 </sst>
 </file>
@@ -591,16 +778,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,11 +857,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Abadi"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <name val="Abadi"/>
@@ -739,7 +940,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -940,13 +1141,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,7 +1268,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1078,7 +1279,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Plantilla diagrama de valorV2(1).xlsx]Diagrama de desperdicios!TablaDinámica11</c:name>
+    <c:name>[Plantilla diagrama de valor.xlsx]Diagrama de desperdicios!TablaDinámica11</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1318,7 +1519,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Diagrama de desperdicios'!$B$7</c:f>
+              <c:f>'Diagrama de desperdicios'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1529,17 +1730,20 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total general</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Diagrama de desperdicios'!$B$8</c:f>
+              <c:f>'Diagrama de desperdicios'!$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1869</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3122,7 +3326,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:colOff>844549</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>74406</xdr:rowOff>
     </xdr:to>
@@ -3167,28 +3371,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="RICKY BASAY" refreshedDate="43881.572041898151" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="202" xr:uid="{ACC8BD1E-8824-4F3D-8D5A-7AAD08A0EACD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="César Daniel Reyes Álvarez" refreshedDate="45305.989440046294" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="202" xr:uid="{ACC8BD1E-8824-4F3D-8D5A-7AAD08A0EACD}">
   <cacheSource type="worksheet">
     <worksheetSource ref="G9:H1001" sheet="Datos"/>
   </cacheSource>
   <cacheFields count="2">
-    <cacheField name="Tipo de Desperdicio" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="11">
-        <m/>
-        <s v="DEFECTO" u="1"/>
-        <s v="TRANSPORTE" u="1"/>
-        <s v="ESPERA" u="1"/>
-        <s v="REPROCESO" u="1"/>
-        <s v="INVENTARIO" u="1"/>
-        <s v="AGREGA VALOR" u="1"/>
-        <s v="REPRIORIZACIÓN" u="1"/>
-        <s v="TALENTO DE LA GENTE" u="1"/>
-        <s v="MOVIMIENTO" u="1"/>
-        <s v="SOBREPRODUCCIÓN" u="1"/>
-      </sharedItems>
+    <cacheField name="TYPE OF WASTE" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Total" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="720"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3202,845 +3394,825 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="202">
   <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="DEFECTO"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="TRANSPORTE"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="TRANSPORTE"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="MOVIMIENTO"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="MOVIMIENTO"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <s v="MOVIMIENTO"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <s v="AGREGA VALOR"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <s v="DEFECTO"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="TRANSPORTE"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <s v="TRANSPORTE"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="TRANSPORTE"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <s v="INVENTARIO"/>
+    <n v="720"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <s v="TRANSPORTE"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="MOVIMIENTO"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <s v="REPROCESO"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <s v="INVENTARIO"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="121"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <s v="MOVIMIENTO"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="TRANSPORTE"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="TRANSPORTE"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="INVENTARIO"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="INVENTARIO"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="MOVIMIENTO"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="ESPERA"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
+    <m/>
     <n v="0"/>
   </r>
   <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B1A745F2-EAC9-4405-9C21-683C3AD4EA41}" name="TablaDinámica11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A7:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B1A745F2-EAC9-4405-9C21-683C3AD4EA41}" name="TablaDinámica11" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A7:A8" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item m="1" x="1"/>
-        <item m="1" x="3"/>
-        <item m="1" x="9"/>
-        <item m="1" x="2"/>
-        <item h="1" x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
   <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -4048,120 +4220,26 @@
   <dataFields count="1">
     <dataField name="Suma de Total" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="6">
-    <format dxfId="5">
+  <formats count="4">
+    <format dxfId="7">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="9">
+  <chartFormats count="2">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -4487,896 +4565,1220 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2292C8-A329-4033-9395-31FC8E294153}">
   <dimension ref="B2:K210"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="13.140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.1640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="13.1640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+    <row r="6" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="2:11" ht="40" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-    </row>
-    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="2:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="46"/>
+    </row>
+    <row r="10" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="43"/>
       <c r="D10" s="10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="36"/>
+        <v>22</v>
+      </c>
+      <c r="G10" s="33"/>
       <c r="H10" s="9"/>
       <c r="I10" s="23">
         <f>SUM(D11:D2002)</f>
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="J10" s="22">
         <f>SUM(E11:E2002)</f>
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="K10" s="21">
         <f>SUM(F11:F2002)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="26" x14ac:dyDescent="0.15">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7">
+        <v>17</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="H11" s="1">
         <f>SUM(D11:F11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="26" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="47" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H12" s="1">
         <f t="shared" ref="H12:H75" si="0">SUM(D12:F12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="26" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="47" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="26" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>4</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="47" t="s">
+        <v>40</v>
+      </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="13" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>5</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="47" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5">
+        <v>4</v>
+      </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="13" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>6</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="47" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="13" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>7</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>8</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5">
+        <v>80</v>
+      </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>9</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="47" t="s">
+        <v>46</v>
+      </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5">
+        <v>60</v>
+      </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H20" s="1">
         <f>SUM(D20:E20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="5">
+        <v>28</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H21" s="1">
         <f>SUM(D21:E21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="39" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>12</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="5">
+        <v>150</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>13</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>14</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>15</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="47" t="s">
+        <v>48</v>
+      </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5">
+        <v>9</v>
+      </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>16</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="47" t="s">
+        <v>49</v>
+      </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>17</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5">
+        <v>12</v>
+      </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>18</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5">
+        <v>90</v>
+      </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>19</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="47" t="s">
+        <v>52</v>
+      </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5">
+        <v>5</v>
+      </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>20</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5">
+        <v>4</v>
+      </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>21</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="47" t="s">
+        <v>54</v>
+      </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5">
+        <v>4</v>
+      </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>22</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="47" t="s">
+        <v>55</v>
+      </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5">
+        <v>10</v>
+      </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>23</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="47" t="s">
+        <v>56</v>
+      </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5">
+        <v>12</v>
+      </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>24</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5">
+        <v>720</v>
+      </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="H34" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>25</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="47" t="s">
+        <v>58</v>
+      </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5">
+        <v>5</v>
+      </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="39" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>26</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="47" t="s">
+        <v>59</v>
+      </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5">
+        <v>8</v>
+      </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>27</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="47" t="s">
+        <v>60</v>
+      </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5">
+        <v>5</v>
+      </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="39" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>28</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="47" t="s">
+        <v>61</v>
+      </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5">
+        <v>52</v>
+      </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H38" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>29</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5">
+        <v>130</v>
+      </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H39" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="39" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>30</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="5">
+        <v>9</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="H40" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>31</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="47" t="s">
+        <v>65</v>
+      </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="5">
+        <v>36</v>
+      </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="G41" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="H41" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="39" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>32</v>
       </c>
-      <c r="C42" s="5"/>
+      <c r="C42" s="47" t="s">
+        <v>66</v>
+      </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5">
+        <v>5</v>
+      </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H42" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>33</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="5">
+        <v>121</v>
+      </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H43" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>34</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="C44" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="5">
+        <v>69</v>
+      </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H44" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>35</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="47" t="s">
+        <v>69</v>
+      </c>
       <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="5">
+        <v>30</v>
+      </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H45" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>36</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5">
+        <v>3</v>
+      </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H46" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>37</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5">
+        <v>3</v>
+      </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H47" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <v>38</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5">
+        <v>5</v>
+      </c>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H48" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>39</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="47" t="s">
+        <v>73</v>
+      </c>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5">
+        <v>3</v>
+      </c>
       <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="G49" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H49" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>40</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="47" t="s">
+        <v>78</v>
+      </c>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5">
+        <v>2</v>
+      </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H50" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>41</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5">
+        <v>80</v>
+      </c>
       <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H51" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>42</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="C52" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H52" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>43</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="C53" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2</v>
+      </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="G53" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H53" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>44</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="C54" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H54" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>45</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="C55" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="G55" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H55" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B56" s="4">
         <v>46</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="C56" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2</v>
+      </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H56" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>47</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="C57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4</v>
+      </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="G57" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H57" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="4">
         <v>48</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="5">
+        <v>10</v>
+      </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="G58" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H58" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>49</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59" s="47" t="s">
+        <v>83</v>
+      </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
       <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="H59" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
         <v>50</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5">
+        <v>2</v>
+      </c>
       <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="G60" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="H60" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B61" s="4">
         <v>51</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="E61" s="5">
+        <v>30</v>
+      </c>
       <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
+      <c r="G61" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H61" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
         <v>52</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5">
+        <v>2</v>
+      </c>
       <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="G62" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H62" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="39" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
         <v>53</v>
       </c>
-      <c r="C63" s="5"/>
+      <c r="C63" s="47" t="s">
+        <v>87</v>
+      </c>
       <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5">
+        <v>2</v>
+      </c>
       <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
+      <c r="G63" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H63" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="26" x14ac:dyDescent="0.15">
       <c r="B64" s="4">
         <v>54</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="47" t="s">
+        <v>88</v>
+      </c>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5">
+        <v>3</v>
+      </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="G64" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H64" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>55</v>
       </c>
@@ -5390,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>56</v>
       </c>
@@ -5404,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>57</v>
       </c>
@@ -5418,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>58</v>
       </c>
@@ -5432,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B69" s="4">
         <v>59</v>
       </c>
@@ -5446,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B70" s="4">
         <v>60</v>
       </c>
@@ -5460,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B71" s="4">
         <v>61</v>
       </c>
@@ -5474,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B72" s="4">
         <v>62</v>
       </c>
@@ -5488,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B73" s="4">
         <v>63</v>
       </c>
@@ -5502,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B74" s="4">
         <v>64</v>
       </c>
@@ -5516,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B75" s="4">
         <v>65</v>
       </c>
@@ -5530,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B76" s="4">
         <v>66</v>
       </c>
@@ -5544,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B77" s="4">
         <v>67</v>
       </c>
@@ -5558,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B78" s="4">
         <v>68</v>
       </c>
@@ -5572,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B79" s="4">
         <v>69</v>
       </c>
@@ -5586,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B80" s="4">
         <v>70</v>
       </c>
@@ -5600,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B81" s="4">
         <v>71</v>
       </c>
@@ -5614,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B82" s="4">
         <v>72</v>
       </c>
@@ -5628,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B83" s="4">
         <v>73</v>
       </c>
@@ -5642,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B84" s="4">
         <v>74</v>
       </c>
@@ -5656,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B85" s="4">
         <v>75</v>
       </c>
@@ -5670,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B86" s="4">
         <v>76</v>
       </c>
@@ -5684,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B87" s="4">
         <v>77</v>
       </c>
@@ -5698,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B88" s="4">
         <v>78</v>
       </c>
@@ -5712,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B89" s="4">
         <v>79</v>
       </c>
@@ -5726,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B90" s="4">
         <v>80</v>
       </c>
@@ -5740,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B91" s="4">
         <v>81</v>
       </c>
@@ -5754,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B92" s="4">
         <v>82</v>
       </c>
@@ -5768,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B93" s="4">
         <v>83</v>
       </c>
@@ -5782,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B94" s="4">
         <v>84</v>
       </c>
@@ -5796,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B95" s="4">
         <v>85</v>
       </c>
@@ -5810,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B96" s="4">
         <v>86</v>
       </c>
@@ -5824,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B97" s="4">
         <v>87</v>
       </c>
@@ -5838,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B98" s="4">
         <v>88</v>
       </c>
@@ -5852,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B99" s="4">
         <v>89</v>
       </c>
@@ -5866,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B100" s="4">
         <v>90</v>
       </c>
@@ -5880,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B101" s="4">
         <v>91</v>
       </c>
@@ -5894,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B102" s="4">
         <v>92</v>
       </c>
@@ -5908,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B103" s="4">
         <v>93</v>
       </c>
@@ -5922,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B104" s="4">
         <v>94</v>
       </c>
@@ -5936,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B105" s="4">
         <v>95</v>
       </c>
@@ -5950,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B106" s="4">
         <v>96</v>
       </c>
@@ -5964,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B107" s="4">
         <v>97</v>
       </c>
@@ -5978,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B108" s="4">
         <v>98</v>
       </c>
@@ -5992,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B109" s="4">
         <v>99</v>
       </c>
@@ -6006,7 +6408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B110" s="4">
         <v>100</v>
       </c>
@@ -6020,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B111" s="4">
         <v>101</v>
       </c>
@@ -6030,7 +6432,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B112" s="4">
         <v>102</v>
       </c>
@@ -6040,7 +6442,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B113" s="4">
         <v>103</v>
       </c>
@@ -6050,7 +6452,7 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B114" s="4">
         <v>104</v>
       </c>
@@ -6060,7 +6462,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B115" s="4">
         <v>105</v>
       </c>
@@ -6070,7 +6472,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B116" s="4">
         <v>106</v>
       </c>
@@ -6080,7 +6482,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B117" s="4">
         <v>107</v>
       </c>
@@ -6090,7 +6492,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B118" s="4">
         <v>108</v>
       </c>
@@ -6100,7 +6502,7 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B119" s="4">
         <v>109</v>
       </c>
@@ -6110,7 +6512,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B120" s="4">
         <v>110</v>
       </c>
@@ -6120,7 +6522,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B121" s="4">
         <v>111</v>
       </c>
@@ -6130,7 +6532,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B122" s="4">
         <v>112</v>
       </c>
@@ -6140,7 +6542,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B123" s="4">
         <v>113</v>
       </c>
@@ -6150,7 +6552,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B124" s="4">
         <v>114</v>
       </c>
@@ -6160,7 +6562,7 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B125" s="4">
         <v>115</v>
       </c>
@@ -6170,7 +6572,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B126" s="4">
         <v>116</v>
       </c>
@@ -6180,7 +6582,7 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B127" s="4">
         <v>117</v>
       </c>
@@ -6190,7 +6592,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B128" s="4">
         <v>118</v>
       </c>
@@ -6200,7 +6602,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B129" s="4">
         <v>119</v>
       </c>
@@ -6210,7 +6612,7 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B130" s="4">
         <v>120</v>
       </c>
@@ -6220,7 +6622,7 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B131" s="4">
         <v>121</v>
       </c>
@@ -6230,7 +6632,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B132" s="4">
         <v>122</v>
       </c>
@@ -6240,7 +6642,7 @@
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B133" s="4">
         <v>123</v>
       </c>
@@ -6250,7 +6652,7 @@
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B134" s="4">
         <v>124</v>
       </c>
@@ -6260,7 +6662,7 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B135" s="4">
         <v>125</v>
       </c>
@@ -6270,7 +6672,7 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B136" s="4">
         <v>126</v>
       </c>
@@ -6280,7 +6682,7 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B137" s="4">
         <v>127</v>
       </c>
@@ -6290,7 +6692,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B138" s="4">
         <v>128</v>
       </c>
@@ -6300,7 +6702,7 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B139" s="4">
         <v>129</v>
       </c>
@@ -6310,7 +6712,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B140" s="4">
         <v>130</v>
       </c>
@@ -6320,7 +6722,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B141" s="4">
         <v>131</v>
       </c>
@@ -6330,7 +6732,7 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B142" s="4">
         <v>132</v>
       </c>
@@ -6340,7 +6742,7 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B143" s="4">
         <v>133</v>
       </c>
@@ -6350,7 +6752,7 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B144" s="4">
         <v>134</v>
       </c>
@@ -6360,7 +6762,7 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B145" s="4">
         <v>135</v>
       </c>
@@ -6370,7 +6772,7 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B146" s="4">
         <v>136</v>
       </c>
@@ -6380,7 +6782,7 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B147" s="4">
         <v>137</v>
       </c>
@@ -6390,7 +6792,7 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B148" s="4">
         <v>138</v>
       </c>
@@ -6400,7 +6802,7 @@
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B149" s="4">
         <v>139</v>
       </c>
@@ -6410,7 +6812,7 @@
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B150" s="4">
         <v>140</v>
       </c>
@@ -6420,7 +6822,7 @@
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B151" s="4">
         <v>141</v>
       </c>
@@ -6430,7 +6832,7 @@
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B152" s="4">
         <v>142</v>
       </c>
@@ -6440,7 +6842,7 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B153" s="4">
         <v>143</v>
       </c>
@@ -6450,7 +6852,7 @@
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B154" s="4">
         <v>144</v>
       </c>
@@ -6460,7 +6862,7 @@
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B155" s="4">
         <v>145</v>
       </c>
@@ -6470,7 +6872,7 @@
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B156" s="4">
         <v>146</v>
       </c>
@@ -6480,7 +6882,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B157" s="4">
         <v>147</v>
       </c>
@@ -6490,7 +6892,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B158" s="4">
         <v>148</v>
       </c>
@@ -6500,7 +6902,7 @@
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B159" s="4">
         <v>149</v>
       </c>
@@ -6510,7 +6912,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B160" s="4">
         <v>150</v>
       </c>
@@ -6520,7 +6922,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B161" s="4">
         <v>151</v>
       </c>
@@ -6530,7 +6932,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B162" s="4">
         <v>152</v>
       </c>
@@ -6540,7 +6942,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B163" s="4">
         <v>153</v>
       </c>
@@ -6550,7 +6952,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B164" s="4">
         <v>154</v>
       </c>
@@ -6560,7 +6962,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B165" s="4">
         <v>155</v>
       </c>
@@ -6570,7 +6972,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B166" s="4">
         <v>156</v>
       </c>
@@ -6580,7 +6982,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B167" s="4">
         <v>157</v>
       </c>
@@ -6590,7 +6992,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B168" s="4">
         <v>158</v>
       </c>
@@ -6600,7 +7002,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B169" s="4">
         <v>159</v>
       </c>
@@ -6610,7 +7012,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B170" s="4">
         <v>160</v>
       </c>
@@ -6620,7 +7022,7 @@
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B171" s="4">
         <v>161</v>
       </c>
@@ -6630,7 +7032,7 @@
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B172" s="4">
         <v>162</v>
       </c>
@@ -6640,7 +7042,7 @@
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B173" s="4">
         <v>163</v>
       </c>
@@ -6650,7 +7052,7 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B174" s="4">
         <v>164</v>
       </c>
@@ -6660,7 +7062,7 @@
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B175" s="4">
         <v>165</v>
       </c>
@@ -6670,7 +7072,7 @@
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B176" s="4">
         <v>166</v>
       </c>
@@ -6680,7 +7082,7 @@
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B177" s="4">
         <v>167</v>
       </c>
@@ -6690,7 +7092,7 @@
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B178" s="4">
         <v>168</v>
       </c>
@@ -6700,7 +7102,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B179" s="4">
         <v>169</v>
       </c>
@@ -6710,7 +7112,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B180" s="4">
         <v>170</v>
       </c>
@@ -6720,7 +7122,7 @@
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B181" s="4">
         <v>171</v>
       </c>
@@ -6730,7 +7132,7 @@
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B182" s="4">
         <v>172</v>
       </c>
@@ -6740,7 +7142,7 @@
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B183" s="4">
         <v>173</v>
       </c>
@@ -6750,7 +7152,7 @@
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B184" s="4">
         <v>174</v>
       </c>
@@ -6760,7 +7162,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B185" s="4">
         <v>175</v>
       </c>
@@ -6770,7 +7172,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B186" s="4">
         <v>176</v>
       </c>
@@ -6780,7 +7182,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B187" s="4">
         <v>177</v>
       </c>
@@ -6790,7 +7192,7 @@
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B188" s="4">
         <v>178</v>
       </c>
@@ -6800,7 +7202,7 @@
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B189" s="4">
         <v>179</v>
       </c>
@@ -6810,7 +7212,7 @@
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B190" s="4">
         <v>180</v>
       </c>
@@ -6820,7 +7222,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B191" s="4">
         <v>181</v>
       </c>
@@ -6830,7 +7232,7 @@
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B192" s="4">
         <v>182</v>
       </c>
@@ -6840,7 +7242,7 @@
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B193" s="4">
         <v>183</v>
       </c>
@@ -6850,7 +7252,7 @@
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B194" s="4">
         <v>184</v>
       </c>
@@ -6860,7 +7262,7 @@
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B195" s="4">
         <v>185</v>
       </c>
@@ -6870,7 +7272,7 @@
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B196" s="4">
         <v>186</v>
       </c>
@@ -6880,7 +7282,7 @@
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B197" s="4">
         <v>187</v>
       </c>
@@ -6890,7 +7292,7 @@
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B198" s="4">
         <v>188</v>
       </c>
@@ -6900,7 +7302,7 @@
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B199" s="4">
         <v>189</v>
       </c>
@@ -6910,7 +7312,7 @@
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B200" s="4">
         <v>190</v>
       </c>
@@ -6920,7 +7322,7 @@
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B201" s="4">
         <v>191</v>
       </c>
@@ -6930,7 +7332,7 @@
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B202" s="4">
         <v>192</v>
       </c>
@@ -6940,7 +7342,7 @@
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B203" s="4">
         <v>193</v>
       </c>
@@ -6950,7 +7352,7 @@
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B204" s="4">
         <v>194</v>
       </c>
@@ -6960,7 +7362,7 @@
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B205" s="4">
         <v>195</v>
       </c>
@@ -6970,7 +7372,7 @@
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B206" s="4">
         <v>196</v>
       </c>
@@ -6980,7 +7382,7 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B207" s="4">
         <v>197</v>
       </c>
@@ -6990,7 +7392,7 @@
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B208" s="4">
         <v>198</v>
       </c>
@@ -7000,7 +7402,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B209" s="4">
         <v>199</v>
       </c>
@@ -7010,7 +7412,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B210" s="4">
         <v>200</v>
       </c>
@@ -7078,35 +7480,35 @@
   <dimension ref="D3:H4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D3" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="47"/>
+    <row r="3" spans="4:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="D3" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="44"/>
       <c r="F3" s="14" t="str">
         <f>Datos!I6</f>
-        <v>LIMPIEZA MÁQUINA</v>
+        <v>MACHINE CLEANING</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="4:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D4" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="47"/>
+    <row r="4" spans="4:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="D4" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="44"/>
       <c r="F4" s="14" t="str">
         <f>Datos!D7</f>
-        <v>CAMILA</v>
+        <v>Daniel Reyes</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
@@ -7127,41 +7529,37 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C1" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="28"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="48">
+        <v>1869</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection pivotTables="0"/>
@@ -7181,68 +7579,68 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
